--- a/biology/Botanique/Heliconia_wagneriana/Heliconia_wagneriana.xlsx
+++ b/biology/Botanique/Heliconia_wagneriana/Heliconia_wagneriana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L’Héliconia de Wagner, Heliconia wagneriana, est une espèce de plantes à fleurs de la famille des Heliconiaceae, originaire d'Amérique centrale, de Colombie et des Antilles.
 </t>
@@ -511,9 +523,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (24 mars 2012)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (24 mars 2012) :
 Heliconia elongata Griggs (1903)
 Heliconia lennartiana W.J.Kress (1986)
 Bihai elongata (Griggs) Griggs (1904)
@@ -545,9 +559,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Bractées imbriquées avec une tache rouge orangée entourée de jaune et de vert. Le bord supérieur des bractées étant délimité par une fine bande verte[2],[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Bractées imbriquées avec une tache rouge orangée entourée de jaune et de vert. Le bord supérieur des bractées étant délimité par une fine bande verte,.
 Fleurs vertes.</t>
         </is>
       </c>
@@ -576,7 +592,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Amérique centrale, Colombie, Antilles. Présent en Guadeloupe.
 </t>
